--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_10-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_10-41.xlsx
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>DOSIN 2MG 20 TAB.</t>
   </si>
   <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
@@ -856,17 +859,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.040000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -874,7 +877,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -882,17 +885,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -914,7 +917,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>136.5</v>
+        <v>186</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
@@ -940,7 +943,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>68.25</v>
+        <v>136.5</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
@@ -960,13 +963,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>18</v>
+        <v>68.25</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -986,17 +989,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1004,7 +1007,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1012,17 +1015,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>175</v>
+        <v>14.1</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1038,13 +1041,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>2.5</v>
+        <v>175</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
@@ -1056,7 +1059,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1064,13 +1067,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1082,7 +1085,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1090,13 +1093,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1108,7 +1111,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1116,51 +1119,77 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="K21" s="11">
-        <v>1206.3499999999999</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="12">
+    <row r="21" ht="24.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c t="s" r="B21" s="7">
         <v>32</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c t="s" r="F22" s="13">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c t="s" r="H21" s="8">
+        <v>29</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>20</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="26.25" customHeight="1">
+      <c r="K22" s="11">
+        <v>1238.3499999999999</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="12">
         <v>33</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c t="s" r="I22" s="15">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c t="s" r="F23" s="13">
         <v>34</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c t="s" r="I23" s="15">
+        <v>35</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="65">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1219,10 +1248,13 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:N23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
